--- a/Device Interaction/Manual Study/Alarms.xlsx
+++ b/Device Interaction/Manual Study/Alarms.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
   <si>
     <t>Application</t>
   </si>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -271,11 +271,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <b/>
     </font>
@@ -398,8 +393,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -410,10 +405,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -452,13 +447,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -506,28 +501,28 @@
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -606,9 +601,8 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/forgiving-security.groovy","forgiving-security.groovy")</f>
-        <v>forgiving-security.groovy</v>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
@@ -651,9 +645,8 @@
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/initial-state-event-streamer.groovy","initial-state-event-streamer.groovy")</f>
-        <v>initial-state-event-streamer.groovy</v>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>15</v>
@@ -696,9 +689,8 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-alarm.groovy","smart-alarm.groovy")</f>
-        <v>smart-alarm.groovy</v>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>18</v>
@@ -741,9 +733,8 @@
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-security.groovy","smart-security.groovy")</f>
-        <v>smart-security.groovy</v>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -786,9 +777,8 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>15</v>
@@ -831,9 +821,8 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/DeviceTamperAlarm.groovy","DeviceTamperAlarm.groovy")</f>
-        <v>DeviceTamperAlarm.groovy</v>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>18</v>
@@ -876,9 +865,8 @@
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>18</v>
@@ -921,9 +909,8 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>15</v>
@@ -966,9 +953,8 @@
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>15</v>
@@ -1011,9 +997,8 @@
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>15</v>
